--- a/my_rank/芯片.xlsx
+++ b/my_rank/芯片.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5790</v>
+        <v>11005</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7786037020842442</v>
+        <v>0.6447514493647465</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5319</v>
+        <v>8415</v>
       </c>
       <c r="D3" t="n">
-        <v>0.709954817082058</v>
+        <v>0.4850129517700753</v>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5554</v>
+        <v>10461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7442063839090511</v>
+        <v>0.611200197360306</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4545</v>
+        <v>7708</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5971432735752805</v>
+        <v>0.4414086591834218</v>
       </c>
       <c r="E5" t="n">
         <v>114</v>
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5633</v>
+        <v>10415</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7557207404168489</v>
+        <v>0.6083631429628716</v>
       </c>
       <c r="E6" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6244</v>
+        <v>11811</v>
       </c>
       <c r="D7" t="n">
-        <v>0.844774814167031</v>
+        <v>0.6944615764154435</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6991</v>
+        <v>15695</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9536510712724092</v>
+        <v>0.934007647711854</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -599,13 +599,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6269</v>
+        <v>13261</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8484185978720303</v>
+        <v>0.7838904650302208</v>
       </c>
       <c r="E9" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6562</v>
+        <v>14281</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8911237428946218</v>
+        <v>0.846799062538547</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6032</v>
+        <v>12157</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8138755283486372</v>
+        <v>0.7158011594917972</v>
       </c>
       <c r="E11" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5962</v>
+        <v>10424</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8036729339746392</v>
+        <v>0.6089182188232392</v>
       </c>
       <c r="E12" t="n">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5498</v>
+        <v>9933</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7360443084098528</v>
+        <v>0.5786357468854076</v>
       </c>
       <c r="E13" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2836</v>
+        <v>4039</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3480542195015304</v>
+        <v>0.2151227334402368</v>
       </c>
       <c r="E14" t="n">
         <v>131</v>
@@ -713,13 +713,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4116</v>
+        <v>7597</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5346159451974931</v>
+        <v>0.4345627235722215</v>
       </c>
       <c r="E15" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4922</v>
+        <v>7963</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6520915318466696</v>
+        <v>0.4571358085605033</v>
       </c>
       <c r="E16" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6724</v>
+        <v>14625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9147354613030171</v>
+        <v>0.8680152954237079</v>
       </c>
       <c r="E17" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5616</v>
+        <v>9182</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7532429674974493</v>
+        <v>0.5323177500925127</v>
       </c>
       <c r="E18" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5559</v>
+        <v>11672</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7449351406500511</v>
+        <v>0.6858887381275441</v>
       </c>
       <c r="E19" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5636</v>
+        <v>9834</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7561579944614488</v>
+        <v>0.5725299124213643</v>
       </c>
       <c r="E20" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6543</v>
+        <v>12258</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8883544672788223</v>
+        <v>0.7220303441470334</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4899</v>
+        <v>8619</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6487392508380703</v>
+        <v>0.4975946712717405</v>
       </c>
       <c r="E22" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3768</v>
+        <v>6099</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4838944760239032</v>
+        <v>0.3421734303688171</v>
       </c>
       <c r="E23" t="n">
         <v>123</v>
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5259</v>
+        <v>10209</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7012097361900598</v>
+        <v>0.5956580732700135</v>
       </c>
       <c r="E24" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6085</v>
+        <v>11335</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8216003498032357</v>
+        <v>0.6651042309115579</v>
       </c>
       <c r="E25" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -922,13 +922,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4298</v>
+        <v>7980</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5611426905698877</v>
+        <v>0.458184285185642</v>
       </c>
       <c r="E26" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7005</v>
+        <v>15300</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9556915901472088</v>
+        <v>0.9096459849512767</v>
       </c>
       <c r="E27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -960,13 +960,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5184</v>
+        <v>8918</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6902783850750619</v>
+        <v>0.5160355248550635</v>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7091</v>
+        <v>15098</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9682262060924064</v>
+        <v>0.8971876156408043</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7011</v>
+        <v>15172</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9565660982364087</v>
+        <v>0.9017515727149377</v>
       </c>
       <c r="E30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5323</v>
+        <v>10267</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7105378224748579</v>
+        <v>0.5992352288146047</v>
       </c>
       <c r="E31" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6029</v>
+        <v>10914</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8134382743040374</v>
+        <v>0.6391390156654743</v>
       </c>
       <c r="E32" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5262</v>
+        <v>8467</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7016469902346597</v>
+        <v>0.4882200567410879</v>
       </c>
       <c r="E33" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5740</v>
+        <v>10386</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7713161346742458</v>
+        <v>0.6065745651905761</v>
       </c>
       <c r="E34" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5426</v>
+        <v>9432</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7255502113394549</v>
+        <v>0.5477365239916122</v>
       </c>
       <c r="E35" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -1112,13 +1112,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7024</v>
+        <v>15707</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9584608657630083</v>
+        <v>0.9347477488590107</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6324</v>
+        <v>11205</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8564349220230287</v>
+        <v>0.6570864684840262</v>
       </c>
       <c r="E37" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6299</v>
+        <v>13190</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8527911383180294</v>
+        <v>0.7795115332428765</v>
       </c>
       <c r="E38" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
@@ -1169,13 +1169,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6468</v>
+        <v>11581</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8774231161638245</v>
+        <v>0.6802763044282719</v>
       </c>
       <c r="E39" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
@@ -1188,13 +1188,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6906</v>
+        <v>13777</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9412622066754117</v>
+        <v>0.8157148143579622</v>
       </c>
       <c r="E40" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6288</v>
+        <v>13334</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8511878734878298</v>
+        <v>0.7883927470087578</v>
       </c>
       <c r="E41" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6561</v>
+        <v>13573</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8909779915464218</v>
+        <v>0.803133094856297</v>
       </c>
       <c r="E42" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2983</v>
+        <v>5069</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3694796676869261</v>
+        <v>0.2786480819045269</v>
       </c>
       <c r="E43" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5565</v>
+        <v>10988</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7458096487392508</v>
+        <v>0.6437029727396077</v>
       </c>
       <c r="E44" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
@@ -1283,13 +1283,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5635</v>
+        <v>11363</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7560122431132488</v>
+        <v>0.6668311335882571</v>
       </c>
       <c r="E45" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7024</v>
+        <v>14463</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9584608657630083</v>
+        <v>0.8580239299370914</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
@@ -1321,13 +1321,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7105</v>
+        <v>14147</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9702667249672059</v>
+        <v>0.8385345997286295</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6733</v>
+        <v>14104</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9160472234368168</v>
+        <v>0.8358825706179844</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49">
@@ -1359,13 +1359,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5843</v>
+        <v>10858</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7863285235388427</v>
+        <v>0.635685210312076</v>
       </c>
       <c r="E49" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50">
@@ -1378,13 +1378,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4144</v>
+        <v>6660</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5386969829470922</v>
+        <v>0.3767731589983965</v>
       </c>
       <c r="E50" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
@@ -1397,13 +1397,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6493</v>
+        <v>11749</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8810668998688238</v>
+        <v>0.6906377204884667</v>
       </c>
       <c r="E51" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52">
@@ -1416,13 +1416,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7063</v>
+        <v>14976</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9641451683428072</v>
+        <v>0.8896632539780437</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6978</v>
+        <v>15370</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9517563037458097</v>
+        <v>0.9139632416430246</v>
       </c>
       <c r="E53" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5764</v>
+        <v>11756</v>
       </c>
       <c r="D54" t="n">
-        <v>0.774814167031045</v>
+        <v>0.6910694461576415</v>
       </c>
       <c r="E54" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5810</v>
+        <v>11124</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7815187290482437</v>
+        <v>0.6520907857407179</v>
       </c>
       <c r="E55" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
@@ -1492,13 +1492,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7193</v>
+        <v>14877</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9830928436088033</v>
+        <v>0.8835574195140002</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6383</v>
+        <v>12509</v>
       </c>
       <c r="D57" t="n">
-        <v>0.865034251566827</v>
+        <v>0.7375107931417294</v>
       </c>
       <c r="E57" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58">
@@ -1530,13 +1530,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6635</v>
+        <v>12724</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9017635913132196</v>
+        <v>0.7507709386949549</v>
       </c>
       <c r="E58" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
@@ -1549,13 +1549,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4897</v>
+        <v>8221</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6484477481416703</v>
+        <v>0.473047983224374</v>
       </c>
       <c r="E59" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60">
@@ -1568,13 +1568,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4900</v>
+        <v>8508</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6488850021862702</v>
+        <v>0.4907487356605403</v>
       </c>
       <c r="E60" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5459</v>
+        <v>9666</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7303600058300539</v>
+        <v>0.5621684963611694</v>
       </c>
       <c r="E61" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6952</v>
+        <v>15344</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9479667686926104</v>
+        <v>0.9123596891575182</v>
       </c>
       <c r="E62" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -1625,13 +1625,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6783</v>
+        <v>13478</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9233347908468154</v>
+        <v>0.7972739607746392</v>
       </c>
       <c r="E63" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64">
@@ -1644,13 +1644,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5009</v>
+        <v>9086</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6647718991400671</v>
+        <v>0.5263969409152585</v>
       </c>
       <c r="E64" t="n">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6834</v>
+        <v>14418</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9307681096050139</v>
+        <v>0.8552485506352535</v>
       </c>
       <c r="E65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2328</v>
+        <v>3219</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2740125346159452</v>
+        <v>0.1645491550511903</v>
       </c>
       <c r="E66" t="n">
         <v>132</v>
@@ -1701,13 +1701,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7121</v>
+        <v>15964</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9725987465384055</v>
+        <v>0.950598248427285</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -1720,13 +1720,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6896</v>
+        <v>14472</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9398046931934121</v>
+        <v>0.8585790057974589</v>
       </c>
       <c r="E68" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -1739,13 +1739,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6911</v>
+        <v>12537</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9419909634164116</v>
+        <v>0.7392376958184285</v>
       </c>
       <c r="E69" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6108</v>
+        <v>11422</v>
       </c>
       <c r="D70" t="n">
-        <v>0.824952630811835</v>
+        <v>0.6704699642284445</v>
       </c>
       <c r="E70" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71">
@@ -1777,13 +1777,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5659</v>
+        <v>10288</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7595102754700481</v>
+        <v>0.600530405822129</v>
       </c>
       <c r="E71" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4866</v>
+        <v>8147</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6439294563474712</v>
+        <v>0.4684840261502405</v>
       </c>
       <c r="E72" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
@@ -1815,13 +1815,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7069</v>
+        <v>15839</v>
       </c>
       <c r="D73" t="n">
-        <v>0.965019676432007</v>
+        <v>0.9428888614777353</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -1834,13 +1834,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6214</v>
+        <v>12177</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8404022737210319</v>
+        <v>0.7170346614037252</v>
       </c>
       <c r="E74" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75">
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6893</v>
+        <v>13573</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9393674391488122</v>
+        <v>0.803133094856297</v>
       </c>
       <c r="E75" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
@@ -1872,13 +1872,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6096</v>
+        <v>11415</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8232036146334354</v>
+        <v>0.6700382385592698</v>
       </c>
       <c r="E76" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77">
@@ -1891,13 +1891,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2998</v>
+        <v>4120</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3716659379099257</v>
+        <v>0.2201184161835451</v>
       </c>
       <c r="E77" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
@@ -1910,13 +1910,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6833</v>
+        <v>14556</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9306223582568138</v>
+        <v>0.8637597138275565</v>
       </c>
       <c r="E78" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -1929,13 +1929,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4156</v>
+        <v>6470</v>
       </c>
       <c r="D79" t="n">
-        <v>0.540445999125492</v>
+        <v>0.3650548908350808</v>
       </c>
       <c r="E79" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
@@ -1948,13 +1948,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4648</v>
+        <v>8312</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6121556624398776</v>
+        <v>0.4786604169236462</v>
       </c>
       <c r="E80" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81">
@@ -1967,13 +1967,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4049</v>
+        <v>6075</v>
       </c>
       <c r="D81" t="n">
-        <v>0.524850604868095</v>
+        <v>0.3406932280745035</v>
       </c>
       <c r="E81" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
@@ -1986,13 +1986,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5744</v>
+        <v>11078</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7718991400670456</v>
+        <v>0.6492537313432836</v>
       </c>
       <c r="E82" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5288</v>
+        <v>8988</v>
       </c>
       <c r="D83" t="n">
-        <v>0.7054365252878589</v>
+        <v>0.5203527815468114</v>
       </c>
       <c r="E83" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84">
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2880</v>
+        <v>4371</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3544672788223291</v>
+        <v>0.235598865178241</v>
       </c>
       <c r="E84" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85">
@@ -2043,13 +2043,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6753</v>
+        <v>14190</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9189622504008162</v>
+        <v>0.8411866288392748</v>
       </c>
       <c r="E85" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4002</v>
+        <v>6754</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5180002915026964</v>
+        <v>0.3825706179844579</v>
       </c>
       <c r="E86" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6451</v>
+        <v>12759</v>
       </c>
       <c r="D87" t="n">
-        <v>0.874945343244425</v>
+        <v>0.7529295670408289</v>
       </c>
       <c r="E87" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88">
@@ -2100,13 +2100,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4784</v>
+        <v>7582</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6319778457950737</v>
+        <v>0.4336375971382755</v>
       </c>
       <c r="E88" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89">
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5552</v>
+        <v>10703</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7439148812126513</v>
+        <v>0.6261255704946342</v>
       </c>
       <c r="E89" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5214</v>
+        <v>9417</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6946509255210611</v>
+        <v>0.5468113975576662</v>
       </c>
       <c r="E90" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4000</v>
+        <v>6968</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5177087888062964</v>
+        <v>0.3957690884420871</v>
       </c>
       <c r="E91" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92">
@@ -2176,13 +2176,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6934</v>
+        <v>15539</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9453432444250109</v>
+        <v>0.9243863327988159</v>
       </c>
       <c r="E92" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6998</v>
+        <v>15272</v>
       </c>
       <c r="D93" t="n">
-        <v>0.954671330709809</v>
+        <v>0.9079190822745775</v>
       </c>
       <c r="E93" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94">
@@ -2214,13 +2214,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5842</v>
+        <v>10693</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7861827721906428</v>
+        <v>0.6255088195386703</v>
       </c>
       <c r="E94" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
@@ -2233,10 +2233,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7204</v>
+        <v>16464</v>
       </c>
       <c r="D95" t="n">
-        <v>0.984696108439003</v>
+        <v>0.9814357962254842</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
@@ -2252,13 +2252,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6477</v>
+        <v>13352</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8787348782976242</v>
+        <v>0.7895028987294931</v>
       </c>
       <c r="E96" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97">
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4600</v>
+        <v>7785</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6051595977262789</v>
+        <v>0.4461576415443444</v>
       </c>
       <c r="E97" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98">
@@ -2290,13 +2290,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6378</v>
+        <v>12653</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8643054948258272</v>
+        <v>0.7463920069076108</v>
       </c>
       <c r="E98" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>448</v>
+        <v>551</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2328,10 +2328,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1828</v>
+        <v>2440</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2011368605159598</v>
+        <v>0.1165042555815961</v>
       </c>
       <c r="E100" t="n">
         <v>133</v>
@@ -2347,13 +2347,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6241</v>
+        <v>11744</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8443375601224311</v>
+        <v>0.6903293450104848</v>
       </c>
       <c r="E101" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102">
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5382</v>
+        <v>9709</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7191371520186561</v>
+        <v>0.5648205254718145</v>
       </c>
       <c r="E102" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103">
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6168</v>
+        <v>12626</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8336977117038332</v>
+        <v>0.744726779326508</v>
       </c>
       <c r="E103" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104">
@@ -2404,10 +2404,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7273</v>
+        <v>16562</v>
       </c>
       <c r="D104" t="n">
-        <v>0.994752951464801</v>
+        <v>0.9874799555939312</v>
       </c>
       <c r="E104" t="n">
         <v>2</v>
@@ -2423,13 +2423,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7083</v>
+        <v>14430</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9670601953068065</v>
+        <v>0.8559886517824102</v>
       </c>
       <c r="E105" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
@@ -2442,13 +2442,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>5308</v>
+        <v>8696</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7083515522518583</v>
+        <v>0.5023436536326631</v>
       </c>
       <c r="E106" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
@@ -2461,13 +2461,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>5898</v>
+        <v>9794</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7943448476898411</v>
+        <v>0.5700629085975083</v>
       </c>
       <c r="E107" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108">
@@ -2480,13 +2480,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6460</v>
+        <v>11076</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8762571053782248</v>
+        <v>0.6491303811520908</v>
       </c>
       <c r="E108" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109">
@@ -2499,13 +2499,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4885</v>
+        <v>9195</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6466987319632707</v>
+        <v>0.5331195263352658</v>
       </c>
       <c r="E109" t="n">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110">
@@ -2518,13 +2518,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5301</v>
+        <v>9816</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7073312928144585</v>
+        <v>0.5714197607006291</v>
       </c>
       <c r="E110" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="111">
@@ -2537,13 +2537,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>5309</v>
+        <v>8580</v>
       </c>
       <c r="D111" t="n">
-        <v>0.7084973036000582</v>
+        <v>0.495189342543481</v>
       </c>
       <c r="E111" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112">
@@ -2556,10 +2556,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3574</v>
+        <v>5643</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4556187144731089</v>
+        <v>0.3140495867768595</v>
       </c>
       <c r="E112" t="n">
         <v>126</v>
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3332</v>
+        <v>5506</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4203468882087159</v>
+        <v>0.305600098680153</v>
       </c>
       <c r="E113" t="n">
         <v>127</v>
@@ -2594,13 +2594,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>5562</v>
+        <v>11060</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7453723946946509</v>
+        <v>0.6481435796225484</v>
       </c>
       <c r="E114" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115">
@@ -2613,13 +2613,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6259</v>
+        <v>11412</v>
       </c>
       <c r="D115" t="n">
-        <v>0.8469610843900306</v>
+        <v>0.6698532132724806</v>
       </c>
       <c r="E115" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116">
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5055</v>
+        <v>8599</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6714764611572657</v>
+        <v>0.4963611693598125</v>
       </c>
       <c r="E116" t="n">
         <v>102</v>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6299</v>
+        <v>11734</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8527911383180294</v>
+        <v>0.6897125940545208</v>
       </c>
       <c r="E117" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118">
@@ -2670,10 +2670,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3620</v>
+        <v>5876</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4623232764903075</v>
+        <v>0.3284198840508203</v>
       </c>
       <c r="E118" t="n">
         <v>125</v>
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6189</v>
+        <v>12571</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8367584900160326</v>
+        <v>0.7413346490687061</v>
       </c>
       <c r="E119" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
@@ -2708,13 +2708,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>4159</v>
+        <v>6885</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5408832531700918</v>
+        <v>0.390650055507586</v>
       </c>
       <c r="E120" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121">
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5417</v>
+        <v>10713</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7242384492056552</v>
+        <v>0.6267423214505983</v>
       </c>
       <c r="E121" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1298</v>
+        <v>1824</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1238886459699752</v>
+        <v>0.07851239669421488</v>
       </c>
       <c r="E122" t="n">
         <v>135</v>
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>5915</v>
+        <v>12120</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7968226206092406</v>
+        <v>0.7135191809547304</v>
       </c>
       <c r="E123" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124">
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>7309</v>
+        <v>16765</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2803,13 +2803,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>5334</v>
+        <v>8810</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7121410873050575</v>
+        <v>0.5093746145306525</v>
       </c>
       <c r="E125" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126">
@@ -2822,13 +2822,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5838</v>
+        <v>12241</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7855997667978429</v>
+        <v>0.7209818675218946</v>
       </c>
       <c r="E126" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127">
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1453</v>
+        <v>1887</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1464801049409707</v>
+        <v>0.08239792771678796</v>
       </c>
       <c r="E127" t="n">
         <v>134</v>
@@ -2860,13 +2860,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3698</v>
+        <v>6146</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4736918816499053</v>
+        <v>0.3450721598618478</v>
       </c>
       <c r="E128" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129">
@@ -2879,13 +2879,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>4587</v>
+        <v>8390</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6032648301996794</v>
+        <v>0.4834710743801653</v>
       </c>
       <c r="E129" t="n">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130">
@@ -2898,13 +2898,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6264</v>
+        <v>12186</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8476898411310304</v>
+        <v>0.7175897372640928</v>
       </c>
       <c r="E130" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131">
@@ -2917,13 +2917,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>5112</v>
+        <v>9174</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6797842880046641</v>
+        <v>0.5318243493277415</v>
       </c>
       <c r="E131" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132">
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>5841</v>
+        <v>11064</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7860370208424428</v>
+        <v>0.648390280004934</v>
       </c>
       <c r="E132" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133">
@@ -2955,13 +2955,13 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7035</v>
+        <v>15107</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9600641305932079</v>
+        <v>0.8977426915011718</v>
       </c>
       <c r="E133" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5824</v>
+        <v>11558</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7835592479230433</v>
+        <v>0.6788577772295548</v>
       </c>
       <c r="E134" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135">
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6997</v>
+        <v>12516</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9545255793616091</v>
+        <v>0.7379425188109041</v>
       </c>
       <c r="E135" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136">
@@ -3012,13 +3012,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>5437</v>
+        <v>9436</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7271534761696545</v>
+        <v>0.5479832243739978</v>
       </c>
       <c r="E136" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137">
@@ -3031,13 +3031,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5968</v>
+        <v>9482</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8045474420638391</v>
+        <v>0.5508202787714321</v>
       </c>
       <c r="E137" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
